--- a/Documentation/TimeSheets/week3/HuyNguyen_timesheet_wk3.xlsx
+++ b/Documentation/TimeSheets/week3/HuyNguyen_timesheet_wk3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -66,14 +66,26 @@
   </si>
   <si>
     <t>Team Meeting Minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research and Setup Lejos environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding and expericence control robot via some simple code </t>
+  </si>
+  <si>
+    <t>Total Time:</t>
+  </si>
+  <si>
+    <t>Self-leaning JavaUI to make UI control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,7 +146,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,11 +460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="3">
-        <v>42929</v>
+        <v>42954</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -544,7 +556,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" ref="G8:G19" si="0">(F8-E8)</f>
+        <f t="shared" ref="G8:G10" si="0">(F8-E8)</f>
         <v>1.388888888888884E-2</v>
       </c>
     </row>
@@ -585,25 +597,58 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3">
+        <v>42958</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G11" s="5">
+        <f>(F11-E11)</f>
+        <v>0.10416666666666674</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3">
+        <v>42960</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="5">
+        <f>(F12-E12)</f>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>42960</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G13" s="5">
+        <f>(F13-E13)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
@@ -648,13 +693,15 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="6">
         <f>SUM(G7:G19)</f>
-        <v>0.15972222222222199</v>
+        <v>0.4722222222222221</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/TimeSheets/week3/HuyNguyen_timesheet_wk3.xlsx
+++ b/Documentation/TimeSheets/week3/HuyNguyen_timesheet_wk3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Adelaide\2017-S2-SEP-PG29\Documentation\TimeSheets\week3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3. Adelaide - Source Code\2017-S2-SEP-PG29\Documentation\TimeSheets\week3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,9 +62,6 @@
     <t>Client Meeting</t>
   </si>
   <si>
-    <t>Huy Nguyen</t>
-  </si>
-  <si>
     <t>Team Meeting Minute</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Self-leaning JavaUI to make UI control</t>
+  </si>
+  <si>
+    <t>Huy Nguyen Phan</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -580,7 +580,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3">
         <v>42957</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>42958</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3">
         <v>42960</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3">
         <v>42960</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
